--- a/doc/SSL攻击总结.xlsx
+++ b/doc/SSL攻击总结.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t xml:space="preserve">编号</t>
   </si>
@@ -30,6 +30,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">攻击</t>
     </r>
@@ -38,6 +39,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">/</t>
     </r>
@@ -46,11 +48,15 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">漏洞名称</t>
     </r>
   </si>
   <si>
+    <t xml:space="preserve">时间</t>
+  </si>
+  <si>
     <t xml:space="preserve">攻击范围</t>
   </si>
   <si>
@@ -63,7 +69,55 @@
     <t xml:space="preserve">应对方法</t>
   </si>
   <si>
-    <t xml:space="preserve">PKI</t>
+    <t xml:space="preserve">DSA和ECDSA签名校验缺陷</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009年</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OpenSSL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OpenSSL代码中容错检查不足，DSA和ECDSA的错误签名不会被检查到。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">任何进行中间人攻击的攻击者可以使用伪造的证书链而不会被查出问题。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ChangeCipherSpec消息注入缺陷 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014年</t>
+  </si>
+  <si>
+    <t xml:space="preserve">攻击者可以在SSL/TLS握手过程中通过提前发送ChangeCipherSpec消息迫
+使最终协商出预期的主密钥值 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">主密钥泄露</t>
+  </si>
+  <si>
+    <t xml:space="preserve">心脏出血</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OpenSSL的“心跳”功能的代码没有对长度做检查，</t>
+  </si>
+  <si>
+    <t xml:space="preserve">攻击者可以利用此缺陷获得服务进程中最大为64KB的数据。通过发送多个
+这样的请求攻击者可以无限制地获取内存数据 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">解决方法：1、升级到，1.0.1g及其以上版本；
+2、编译代码时禁用心跳功能。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">可选证书链伪造</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015年</t>
+  </si>
+  <si>
+    <t xml:space="preserve">攻击者可以使用分支证书伪造成中间证书（CA）</t>
   </si>
   <si>
     <r>
@@ -71,6 +125,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">SSL</t>
     </r>
@@ -79,6 +134,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">降级攻击</t>
     </r>
@@ -89,6 +145,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">SSL</t>
     </r>
@@ -97,12 +154,13 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">协议</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Heart bleed</t>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">BEAST</t>
@@ -113,6 +171,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">AES CBC</t>
     </r>
@@ -121,6 +180,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">算法</t>
     </r>
@@ -131,6 +191,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">RC4</t>
     </r>
@@ -139,6 +200,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">算法</t>
     </r>
@@ -156,6 +218,7 @@
       <sz val="10"/>
       <name val="Noto Sans CJK SC Regular"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -176,6 +239,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -233,7 +297,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -242,16 +306,28 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -331,24 +407,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.71428571428571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.9438775510204"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.4489795918367"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.0612244897959"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.0867346938776"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.5867346938776"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.59183673469388"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.2040816326531"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.80612244897959"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.2551020408163"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="60.015306122449"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="37.5102040816326"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -367,92 +443,138 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" customFormat="false" ht="32.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="B6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="F6" s="3"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="B7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="D8" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
@@ -463,6 +585,29 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/doc/SSL攻击总结.xlsx
+++ b/doc/SSL攻击总结.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t xml:space="preserve">编号</t>
   </si>
@@ -90,8 +90,7 @@
     <t xml:space="preserve">2014年</t>
   </si>
   <si>
-    <t xml:space="preserve">攻击者可以在SSL/TLS握手过程中通过提前发送ChangeCipherSpec消息迫
-使最终协商出预期的主密钥值 </t>
+    <t xml:space="preserve">攻击者可以在SSL/TLS握手过程中通过提前发送ChangeCipherSpec消息迫使最终协商出预期的主密钥值 </t>
   </si>
   <si>
     <t xml:space="preserve">主密钥泄露</t>
@@ -103,11 +102,10 @@
     <t xml:space="preserve">OpenSSL的“心跳”功能的代码没有对长度做检查，</t>
   </si>
   <si>
-    <t xml:space="preserve">攻击者可以利用此缺陷获得服务进程中最大为64KB的数据。通过发送多个
-这样的请求攻击者可以无限制地获取内存数据 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">解决方法：1、升级到，1.0.1g及其以上版本；
+    <t xml:space="preserve">攻击者可以利用此缺陷获得服务进程中最大为64KB的数据。通过发送多个这样的请求攻击者可以无限制地获取内存数据 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、升级到，1.0.1g及其以上版本；
 2、编译代码时禁用心跳功能。</t>
   </si>
   <si>
@@ -118,6 +116,20 @@
   </si>
   <si>
     <t xml:space="preserve">攻击者可以使用分支证书伪造成中间证书（CA）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FREAK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">通过中间人攻击，攻击者可以迫使客户端使用低版本且包含漏洞的加密方
+式，包括美国的出口级密钥——512位的RSA密钥。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">黑客能够轻松解密网站的私钥和加密密码</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、升级OpenSSL到1.0.1k及其以上；
+2、在配置文件中禁止使用出口加密套件。</t>
   </si>
   <si>
     <r>
@@ -297,7 +309,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -327,6 +339,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -407,21 +423,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.59183673469388"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.2040816326531"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.80612244897959"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.2551020408163"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="60.015306122449"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="37.5102040816326"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.32142857142857"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.61224489795918"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="58.5867346938776"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="38.3469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -531,65 +547,75 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
+    <row r="6" customFormat="false" ht="32.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2"/>
+      <c r="B6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4" t="s">
+      <c r="C6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="G6" s="7" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="4"/>
       <c r="D8" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="D9" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -600,7 +626,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -608,6 +634,17 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/doc/SSL攻击总结.xlsx
+++ b/doc/SSL攻击总结.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="SSL攻击及漏洞汇总" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
   <si>
     <t xml:space="preserve">编号</t>
   </si>
@@ -57,7 +57,7 @@
     <t xml:space="preserve">时间</t>
   </si>
   <si>
-    <t xml:space="preserve">攻击范围</t>
+    <t xml:space="preserve">攻击目标</t>
   </si>
   <si>
     <t xml:space="preserve">说明</t>
@@ -121,8 +121,7 @@
     <t xml:space="preserve">FREAK</t>
   </si>
   <si>
-    <t xml:space="preserve">通过中间人攻击，攻击者可以迫使客户端使用低版本且包含漏洞的加密方
-式，包括美国的出口级密钥——512位的RSA密钥。</t>
+    <t xml:space="preserve">通过中间人攻击，攻击者可以迫使客户端使用低版本且包含漏洞的加密方式，包括美国的出口级密钥——512位的RSA密钥。</t>
   </si>
   <si>
     <t xml:space="preserve">黑客能够轻松解密网站的私钥和加密密码</t>
@@ -132,6 +131,12 @@
 2、在配置文件中禁止使用出口加密套件。</t>
   </si>
   <si>
+    <t xml:space="preserve">Logjam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">协议降级攻击</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -139,17 +144,23 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">SSL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">降级攻击</t>
-    </r>
+      <t xml:space="preserve">SSL/TLS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">协议</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">截断攻击</t>
   </si>
   <si>
     <r>
@@ -159,7 +170,27 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">SSL</t>
+      <t xml:space="preserve">2007</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">年</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">SSL3/TLS</t>
     </r>
     <r>
       <rPr>
@@ -172,7 +203,47 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t xml:space="preserve">不安全重协商</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2009</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">年</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">TLS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">协议</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">BEAST</t>
@@ -185,7 +256,27 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">AES CBC</t>
+      <t xml:space="preserve">2010</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">年</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">TLS CBC</t>
     </r>
     <r>
       <rPr>
@@ -198,6 +289,21 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">压缩旁路攻击（CRIME）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012年</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luck 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013年</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC4缺陷</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -216,6 +322,12 @@
       </rPr>
       <t xml:space="preserve">算法</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">POODLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">三次握手攻击</t>
   </si>
 </sst>
 </file>
@@ -423,21 +535,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.32142857142857"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.5408163265306"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.61224489795918"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="58.5867346938776"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="38.3469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.18367346938776"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.2704081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="57.9132653061224"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="37.7959183673469"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -547,8 +659,10 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" customFormat="false" ht="32.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2"/>
+    <row r="6" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="n">
+        <v>5</v>
+      </c>
       <c r="B6" s="5" t="s">
         <v>23</v>
       </c>
@@ -570,81 +684,160 @@
     </row>
     <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="C7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>30</v>
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="D9" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
+    </row>
+    <row r="13" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/doc/SSL攻击总结.xlsx
+++ b/doc/SSL攻击总结.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
   <si>
     <t xml:space="preserve">编号</t>
   </si>
@@ -132,6 +132,17 @@
   </si>
   <si>
     <t xml:space="preserve">Logjam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">利用出口密码套件对DHE密钥的降级机制，攻击者可以迫使客户端使用弱的DHE密钥交换算法。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">可以破解通信密钥。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、升级OpenSSL到1.0.1k及其以上；
+2、在配置文件中禁止使用出口加密套件。
+3、禁用DHE算法，改用ECDHE</t>
   </si>
   <si>
     <t xml:space="preserve">协议降级攻击</t>
@@ -431,7 +442,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -538,18 +549,18 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.18367346938776"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.2704081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.47959183673469"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="57.9132653061224"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="37.7959183673469"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.05102040816327"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.8622448979592"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.3469387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="57.234693877551"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="37.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -575,7 +586,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
@@ -596,7 +607,7 @@
       </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="32.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
@@ -640,7 +651,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
@@ -659,7 +670,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="32.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
         <v>5</v>
       </c>
@@ -682,7 +693,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="48.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
         <v>6</v>
       </c>
@@ -695,23 +706,29 @@
       <c r="D7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -721,13 +738,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -738,13 +755,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -755,13 +772,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -772,24 +789,24 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -801,22 +818,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>13</v>
@@ -831,7 +848,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>

--- a/doc/SSL攻击总结.xlsx
+++ b/doc/SSL攻击总结.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
   <si>
     <t xml:space="preserve">编号</t>
   </si>
@@ -155,6 +155,40 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
+      <t xml:space="preserve">SSL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">协议</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> 攻击者作为中间人修改握手参数，迫使握手使用低版本协议或低强度的
+密码套件</t>
+  </si>
+  <si>
+    <t xml:space="preserve">可以破解通信密钥或利用低版本协议的漏洞进行攻击。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、客户端（浏览器）支持Signaling Cipher Suite Value(SCSV)；
+2、服务端也支持SCSV（将OpenSSL升级到1.0.1j及其以上版本）。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">自愿协议降级攻击</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">SSL/TLS</t>
     </r>
     <r>
@@ -168,7 +202,8 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t xml:space="preserve">在浏览器使用TLS协议时，在握手失败后会降低协议版本直到连接成功；
+这一点可以被攻击者利用来实施协议降级攻击</t>
   </si>
   <si>
     <t xml:space="preserve">截断攻击</t>
@@ -212,6 +247,13 @@
       </rPr>
       <t xml:space="preserve">协议</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">攻击者可以提前结束一条安全连接，以阻断一条或多条消息到达对端。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、升级到TLS1.2
+2、实现客户端（浏览器）的严格检查</t>
   </si>
   <si>
     <t xml:space="preserve">不安全重协商</t>
@@ -432,7 +474,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -467,6 +509,18 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -546,21 +600,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.05102040816327"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.8622448979592"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.3469387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="57.234693877551"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="37.3928571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.91326530612245"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.4591836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.20918367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="56.5612244897959"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="36.9897959183673"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -716,69 +769,75 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="9" t="s">
         <v>31</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+      <c r="F8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="32.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2"/>
+      <c r="B9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" customFormat="false" ht="32.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
-        <v>9</v>
-      </c>
       <c r="B10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="3"/>
+      <c r="C10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="G10" s="10" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>40</v>
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -786,13 +845,16 @@
     </row>
     <row r="12" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>44</v>
+        <v>10</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -800,63 +862,82 @@
     </row>
     <row r="13" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="3"/>
+        <v>51</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="4" t="s">
-        <v>48</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="3"/>
+        <v>56</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/doc/SSL攻击总结.xlsx
+++ b/doc/SSL攻击总结.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="65">
   <si>
     <t xml:space="preserve">编号</t>
   </si>
@@ -168,8 +168,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> 攻击者作为中间人修改握手参数，迫使握手使用低版本协议或低强度的
-密码套件</t>
+    <t xml:space="preserve"> 攻击者作为中间人修改握手参数，迫使握手使用低版本协议或低强度的密码套件</t>
   </si>
   <si>
     <t xml:space="preserve">可以破解通信密钥或利用低版本协议的漏洞进行攻击。</t>
@@ -202,8 +201,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">在浏览器使用TLS协议时，在握手失败后会降低协议版本直到连接成功；
-这一点可以被攻击者利用来实施协议降级攻击</t>
+    <t xml:space="preserve">在浏览器使用TLS协议时，在握手失败后会降低协议版本直到连接成功；这一点可以被攻击者利用来实施协议降级攻击</t>
   </si>
   <si>
     <t xml:space="preserve">截断攻击</t>
@@ -250,6 +248,9 @@
   </si>
   <si>
     <t xml:space="preserve">攻击者可以提前结束一条安全连接，以阻断一条或多条消息到达对端。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cookie截断攻击可以使安全Cookie变成明文的、不安全的Cookie。</t>
   </si>
   <si>
     <t xml:space="preserve">1、升级到TLS1.2
@@ -299,6 +300,19 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">服务器无法保证新旧两条TLS连接的另外一端是同一个，利用这一漏洞
+攻击者可以在正常的数据前插入攻击负载。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">此漏洞破坏了TLS的安全性，不仅通信的完整性受到攻击，攻击者还
+可能获取到通信内容。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、升级以支持安全重协商（OpenSSL2011年
+及其以后的版本）
+2、禁用重协商</t>
+  </si>
+  <si>
     <t xml:space="preserve">BEAST</t>
   </si>
   <si>
@@ -322,24 +336,19 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">TLS CBC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">算法</t>
-    </r>
+    <t xml:space="preserve">TLS1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TLS1.0以及更早的协议版本中对称算法使用的CBC模式的IV值是可以
+预测的，这一会将CBC模式削弱为ECB模式</t>
+  </si>
+  <si>
+    <t xml:space="preserve">攻击者可以获得受害者的会话凭据，并利用这个凭据访问整个目标网
+站</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、使用TLS1.1及其以上版本
+2、禁用CBC套件（使用GCM套件）</t>
   </si>
   <si>
     <t xml:space="preserve">压缩旁路攻击（CRIME）</t>
@@ -602,18 +611,19 @@
   </sheetPr>
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.91326530612245"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.4591836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.20918367346939"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="56.5612244897959"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="36.9897959183673"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.78061224489796"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.484693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.66836734693878"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="55.8877551020408"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="36.5816326530612"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -790,7 +800,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="32.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2"/>
       <c r="B9" s="5" t="s">
         <v>36</v>
@@ -821,54 +831,68 @@
       <c r="E10" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="3"/>
+      <c r="F10" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="G10" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="48.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="C11" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="32.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="B12" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -879,10 +903,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -894,11 +918,11 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="4" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -909,7 +933,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>13</v>
@@ -924,7 +948,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>

--- a/doc/SSL攻击总结.xlsx
+++ b/doc/SSL攻击总结.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
   <si>
     <t xml:space="preserve">编号</t>
   </si>
@@ -247,7 +247,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">攻击者可以提前结束一条安全连接，以阻断一条或多条消息到达对端。</t>
+    <t xml:space="preserve">攻击者可以提前结束一条安全连接，以阻断一条或多条消息到达对端</t>
   </si>
   <si>
     <t xml:space="preserve">Cookie截断攻击可以使安全Cookie变成明文的、不安全的Cookie。</t>
@@ -343,8 +343,7 @@
 预测的，这一会将CBC模式削弱为ECB模式</t>
   </si>
   <si>
-    <t xml:space="preserve">攻击者可以获得受害者的会话凭据，并利用这个凭据访问整个目标网
-站</t>
+    <t xml:space="preserve">攻击者可以获得受害者的会话凭据，并利用这个凭据访问整个目标网站</t>
   </si>
   <si>
     <t xml:space="preserve">1、使用TLS1.1及其以上版本
@@ -357,13 +356,39 @@
     <t xml:space="preserve">2012年</t>
   </si>
   <si>
-    <t xml:space="preserve">Luck 13</t>
+    <t xml:space="preserve">TLS协议</t>
+  </si>
+  <si>
+    <t xml:space="preserve">利用TLS记录长度和TLS压缩算法的特点来猜测明文内容</t>
+  </si>
+  <si>
+    <t xml:space="preserve">攻击者可以提取到客户端的Cookie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、禁用压缩功能
+2、控制请求频率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luck 13(Padding Oracle Attack)</t>
   </si>
   <si>
     <t xml:space="preserve">2013年</t>
   </si>
   <si>
-    <t xml:space="preserve">RC4缺陷</t>
+    <t xml:space="preserve">TLS CBC模式的填充没有被完整性检查机制所保护，攻击者通过对加
+密后的密文进行修改并观察服务器的反应来猜测填充数据和明文数据</t>
+  </si>
+  <si>
+    <t xml:space="preserve">小块加密数据会被破解。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">使用无填充的加密算法（CTR模式或GCM）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC4密钥调度弱点</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2001年</t>
   </si>
   <si>
     <r>
@@ -386,10 +411,69 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">密钥中的一小部分可以决定初始化输出的大部分内容</t>
+  </si>
+  <si>
+    <t xml:space="preserve">破解密钥流的一部分或其他所有流上这些位置的明文</t>
+  </si>
+  <si>
+    <t xml:space="preserve">禁用WEP协议</t>
+  </si>
+  <si>
+    <t xml:space="preserve">单字节偏差</t>
+  </si>
+  <si>
+    <t xml:space="preserve">密钥流的第二个字节为0的概率为1/128（正常是1/256）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">密文的第二个字节被破解</t>
+  </si>
+  <si>
+    <t xml:space="preserve">禁止使用RC4算法</t>
+  </si>
+  <si>
+    <t xml:space="preserve">前256字节偏差</t>
+  </si>
+  <si>
+    <t xml:space="preserve">某些字节出现特定数值的概率较大，出现其他数值的概率却相同</t>
+  </si>
+  <si>
+    <t xml:space="preserve">密文的前256字节被破解</t>
+  </si>
+  <si>
+    <t xml:space="preserve">双字节偏差</t>
+  </si>
+  <si>
+    <t xml:space="preserve">偏差不出现在单一位置，而是以通常的间隔连续出现在加密流中</t>
+  </si>
+  <si>
+    <t xml:space="preserve">破解出明文数据</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC4恒定弱点</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC4偶尔会生成不好的密钥</t>
+  </si>
+  <si>
+    <t xml:space="preserve">密文的前64字节被破解</t>
+  </si>
+  <si>
     <t xml:space="preserve">POODLE</t>
   </si>
   <si>
-    <t xml:space="preserve">三次握手攻击</t>
+    <t xml:space="preserve">SSL3协议</t>
+  </si>
+  <si>
+    <t xml:space="preserve">升级协议到TLS 1,0及其以上版本</t>
+  </si>
+  <si>
+    <t xml:space="preserve">三次握手攻击（TLS重协商攻击）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、对所有访问要求客户端证书
+2、禁用重协商
+3、只启用ECDHE套件</t>
   </si>
 </sst>
 </file>
@@ -483,7 +567,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -530,6 +614,14 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -609,21 +701,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.78061224489796"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.484693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.66836734693878"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="55.8877551020408"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="36.5816326530612"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.51020408163265"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="55.2908163265306"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="54.5357142857143"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="35.6377551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -861,7 +954,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="32.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
         <v>10</v>
       </c>
@@ -884,83 +977,191 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="32.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D13" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="32.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E14" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+        <v>68</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="n">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="13"/>
+      <c r="E16" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" s="9"/>
+    </row>
+    <row r="18" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="E19" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G19" s="9"/>
+    </row>
+    <row r="20" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="3" t="s">
+      <c r="B20" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="n">
+      <c r="D20" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="48.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+      <c r="B21" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="10" t="s">
+        <v>91</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="G8:G9"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="D15:D19"/>
+    <mergeCell ref="G16:G19"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/doc/SSL攻击总结.xlsx
+++ b/doc/SSL攻击总结.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="99">
   <si>
     <t xml:space="preserve">编号</t>
   </si>
@@ -66,6 +66,9 @@
     <t xml:space="preserve">危害</t>
   </si>
   <si>
+    <t xml:space="preserve">攻击的先决条件</t>
+  </si>
+  <si>
     <t xml:space="preserve">应对方法</t>
   </si>
   <si>
@@ -78,10 +81,12 @@
     <t xml:space="preserve">OpenSSL</t>
   </si>
   <si>
-    <t xml:space="preserve">OpenSSL代码中容错检查不足，DSA和ECDSA的错误签名不会被检查到。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">任何进行中间人攻击的攻击者可以使用伪造的证书链而不会被查出问题。</t>
+    <t xml:space="preserve">OpenSSL代码中容错检查不足，DSA和ECDSA的错误签名不会被检
+查到。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">任何进行中间人攻击的攻击者可以使用伪造的证书链而不会被查出
+问题。</t>
   </si>
   <si>
     <t xml:space="preserve">ChangeCipherSpec消息注入缺陷 </t>
@@ -300,16 +305,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">服务器无法保证新旧两条TLS连接的另外一端是同一个，利用这一漏洞
-攻击者可以在正常的数据前插入攻击负载。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">此漏洞破坏了TLS的安全性，不仅通信的完整性受到攻击，攻击者还
-可能获取到通信内容。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、升级以支持安全重协商（OpenSSL2011年
-及其以后的版本）
+    <t xml:space="preserve">服务器无法保证新旧两条TLS连接的另外一端是同一个，利用这一漏洞攻击者可以在正常的数据前插入攻击负载。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">此漏洞破坏了TLS的安全性，不仅通信的完整性受到攻击，攻击者还可能获取到通信内容。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、升级以支持安全重协商（OpenSSL2011年及其以后的版本）
 2、禁用重协商</t>
   </si>
   <si>
@@ -375,8 +377,7 @@
     <t xml:space="preserve">2013年</t>
   </si>
   <si>
-    <t xml:space="preserve">TLS CBC模式的填充没有被完整性检查机制所保护，攻击者通过对加
-密后的密文进行修改并观察服务器的反应来猜测填充数据和明文数据</t>
+    <t xml:space="preserve">TLS CBC模式的填充没有完整性检查机制，攻击者通过对加密后的密文进行修改并观察服务器的反应来猜测填充数据和明文数据</t>
   </si>
   <si>
     <t xml:space="preserve">小块加密数据会被破解。</t>
@@ -465,10 +466,31 @@
     <t xml:space="preserve">SSL3协议</t>
   </si>
   <si>
+    <t xml:space="preserve">CBC模式对填充字节没有进行完整性检验，这使得攻击者可以对填充
+字节进行修改并利用填充预示来恢复加密内容。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">可以让攻击者破解小段的加密数据</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、必须是SSL 3协议
+2、攻击者必须对客户端有足够的控制权</t>
+  </si>
+  <si>
     <t xml:space="preserve">升级协议到TLS 1,0及其以上版本</t>
   </si>
   <si>
     <t xml:space="preserve">三次握手攻击（TLS重协商攻击）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">利用未知共享密钥等缺陷绕过安全重协商机制进行攻击。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">可以对重协商机制进行攻击</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、只能用在要求使用客户端证书的场景
+2、必须能对客户端实施钓鱼攻击</t>
   </si>
   <si>
     <t xml:space="preserve">1、对所有访问要求客户端证书
@@ -567,7 +589,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -580,36 +602,32 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -701,22 +719,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.51020408163265"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.8061224489796"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.47959183673469"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="55.2908163265306"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="54.5357142857143"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="35.6377551020408"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.3469387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="54.6734693877551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="53.8622448979592"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="35.0969387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -741,427 +758,462 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" customFormat="false" ht="32.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="7" t="s">
+      <c r="C3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="D3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" customFormat="false" ht="32.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G4" s="6"/>
+      <c r="H4" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+      <c r="D5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="32.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="B6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="C6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="F6" s="7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="48.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G6" s="6"/>
+      <c r="H6" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="B7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="C7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>30</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="6" t="s">
+      <c r="B8" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="C8" s="9"/>
+      <c r="D8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="E8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="F8" s="8" t="s">
         <v>35</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="10" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2"/>
-      <c r="B9" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="6" t="s">
+      <c r="B9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="C9" s="9"/>
+      <c r="D9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="11"/>
-    </row>
-    <row r="10" customFormat="false" ht="32.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="C10" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="E10" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="F10" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="48.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G10" s="3"/>
+      <c r="H10" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="B11" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="C11" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="D11" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="E11" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="F11" s="6" t="s">
         <v>50</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="B12" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="C12" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="D12" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="E12" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="F12" s="5" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="32.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G12" s="5"/>
+      <c r="H12" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="5" t="s">
+      <c r="B13" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="C13" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="D13" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="E13" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="F13" s="3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="32.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G13" s="3"/>
+      <c r="H13" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="5" t="s">
+      <c r="B14" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="10" t="s">
+      <c r="C14" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="D14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="F14" s="3" t="s">
         <v>67</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="3" t="s">
+      <c r="B15" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="C15" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="D15" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="E15" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="F15" s="5" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G15" s="5"/>
+      <c r="H15" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2"/>
-      <c r="B16" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="3" t="s">
+      <c r="B16" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="C16" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="F16" s="5" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G16" s="5"/>
+      <c r="H16" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2"/>
-      <c r="B17" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="3" t="s">
+      <c r="B17" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="C17" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="G17" s="9"/>
-    </row>
-    <row r="18" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F17" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2"/>
-      <c r="B18" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="3" t="s">
+      <c r="B18" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="C18" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="12"/>
+      <c r="E18" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="G18" s="9"/>
-    </row>
-    <row r="19" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F18" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2"/>
-      <c r="B19" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="3" t="s">
+      <c r="B19" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="C19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="12"/>
+      <c r="E19" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="G19" s="9"/>
-    </row>
-    <row r="20" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F19" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" customFormat="false" ht="32.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="n">
         <v>14</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3" t="s">
         <v>89</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="48.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="10" t="s">
-        <v>91</v>
+      <c r="B21" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
     <mergeCell ref="A15:A19"/>
     <mergeCell ref="D15:D19"/>
-    <mergeCell ref="G16:G19"/>
+    <mergeCell ref="H16:H19"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
